--- a/SupplementaryTables/Supplementary Table 13.xlsx
+++ b/SupplementaryTables/Supplementary Table 13.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddabl\Documents\Network\drugs\drg1_paper\supp\2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gsiwo/Desktop/NatureMachineIntelligenceFinal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{964BB001-DDDD-474E-91C0-98C0B0F7D99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB5AC4E-F0AD-ED41-B275-F82D03A1ACED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="tanimoto" sheetId="1" r:id="rId1"/>
+    <sheet name="S13" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">tanimoto!$A$1:$E$505</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">tanimoto!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'S13'!$A$1:$E$505</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'S13'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2453,18 +2453,18 @@
   <dimension ref="A1:E504"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A483" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D75" sqref="D75"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="51.88671875" customWidth="1"/>
-    <col min="2" max="2" width="80.44140625" customWidth="1"/>
+    <col min="1" max="1" width="51.83203125" customWidth="1"/>
+    <col min="2" max="2" width="80.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>0.39252337813377303</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>0.56862747669219904</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>0.403846144676208</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>0.34862384200096103</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>0.246376812458038</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>0.33944955468177701</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>0.37931033968925398</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>0.36036035418510398</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>0.36036035418510398</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>0.50769233703613204</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>0.318181812763214</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>0.84090906381607</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>0.40404039621353099</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>0.83333331346511796</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>0.476923078298568</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>0.82222223281860296</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>0.82222223281860296</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>0.246376812458038</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>0.235294118523597</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>0.225352108478546</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>0.36111110448837203</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>0.53571426868438698</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>0.47272726893424899</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>0.35576921701431202</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>0.47619047760963401</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>0.795454561710357</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>0.403846144676208</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>0.41747573018074002</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>0.403846144676208</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>0.42574256658553999</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>0.40000000596046398</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>0.76363635063171298</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>0.36448597908019997</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>0.32727271318435602</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>0.22077922523021601</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>0.74468082189559903</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>0.21359223127365101</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>0.33027523756027199</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>0.28787878155708302</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>0.26865673065185502</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>0.21875</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>20</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>0.31428572535514798</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>0.73584908246993996</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>18</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>0.51724135875701904</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>15</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>0.73333334922790505</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>0.23943662643432601</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>0.73214286565780595</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>0.35849055647849998</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>0.727272748947143</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>22</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>0.49122807383537198</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>0.25373134016990601</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>0.34920635819435097</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>0.387755095958709</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>20</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>0.27350428700446999</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>0.70909088850021296</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>17</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>0.25714287161826999</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>0.70833331346511796</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>15</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>0.70833331346511796</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>15</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>0.70833331346511796</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>11</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>0.41860464215278598</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>0.70689654350280695</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>20</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>0.244897961616516</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>0.25714287161826999</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>0.266666680574417</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>13</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>0.265625</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>0.69999998807907104</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>26</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>0.69999998807907104</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>0.76470589637756303</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>0.69811320304870605</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>15</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>0.69565218687057495</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>0.36065572500228799</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>20</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>0.37272727489471402</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>0.69230771064758301</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>0.58333331346511796</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>18</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>0.48571428656577997</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>20</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>0.380952388048172</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>0.68421053886413497</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>0.25609755516052202</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>26</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>0.68085104227065996</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>0.67924529314041104</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>0.30357143282890298</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>11</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>0.40000000596046398</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>0.67307692766189497</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>6</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>0.38983049988746599</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>0.38983049988746599</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>10</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>0.67307692766189497</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>18</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>0.38028168678283603</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>10</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>0.66666668653488104</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>0.66666668653488104</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>22</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>0.55357140302658003</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>0.53846156597137396</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>11</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>0.36538460850715598</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>13</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>0.22666667401790599</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>10</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>0.66037738323211603</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>10</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>0.66037738323211603</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>18</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>0.69767439365386896</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>11</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>0.42500001192092801</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>13</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>0.21333333849906899</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>11</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>0.35849055647849998</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>20</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>0.41346153616905201</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>11</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>0.47619047760963401</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>13</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>0.23880596458911801</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>18</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>0.44827586412429798</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>20</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>0.29464286565780601</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>10</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>0.64705884456634499</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>15</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>0.64583331346511796</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>17</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>0.64583331346511796</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>6</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>0.64583331346511796</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>18</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>0.42028984427451999</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>13</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>0.28571429848670898</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>20</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>0.25862067937850902</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>17</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>22</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>0.44999998807907099</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>15</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>0.63265305757522505</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>15</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>0.63265305757522505</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>20</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>0.236363634467124</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>18</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>0.46969696879386902</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>15</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>0.80487805604934604</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>15</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>13</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>0.29310345649719199</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>26</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>0.62264150381088201</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>15</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>20</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>0.318965524435043</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>8</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>0.34210526943206698</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>6</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>0.396226406097412</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>17</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>0.31746032834053001</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>17</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>0.28571429848670898</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>11</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>26</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>0.71428573131561202</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>10</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>0.60784316062927202</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>26</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>0.60416668653488104</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>18</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>0.45614033937454201</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>13</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>0.46551725268363903</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>40</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>0.46551725268363903</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>26</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>0.69999998807907104</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>5</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>0.59615385532379095</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>8</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>0.33333334326744002</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>17</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>0.59259259700775102</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>17</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>0.27692309021949701</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>18</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>0.38461539149284302</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>10</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>0.58490568399429299</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>10</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>0.58181816339492798</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>0.58181816339492798</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>0.58139532804489102</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>18</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>0.59322035312652499</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>15</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>0.57999998331069902</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>17</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>0.27142858505249001</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>13</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>0.23943662643432601</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>22</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>0.57407408952713002</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>24</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>0.57142859697341897</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>10</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>0.57142859697341897</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>24</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>0.57142859697341897</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>11</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>0.38983049988746599</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>13</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>0.20512820780277199</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>22</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>0.56896549463272095</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>11</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>0.46341463923454201</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>18</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>0.44827586412429798</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>6</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>0.34375</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>40</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>0.45588234066963101</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>17</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>0.30769231915473899</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>15</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>0.57446807622909501</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>10</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>0.56000000238418501</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>11</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>0.44999998807907099</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>11</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>0.41025641560554499</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>11</v>
       </c>
@@ -4923,7 +4923,7 @@
         <v>0.41025641560554499</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>17</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>0.55769228935241699</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>5</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>0.55769228935241699</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>18</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>0.42592594027519198</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>22</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>22</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>0.54716980457305897</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>17</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>0.54716980457305897</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>18</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>0.50877195596694902</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>8</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>0.30000001192092801</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>8</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>0.34146341681480402</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>24</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>0.54054051637649503</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>40</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>0.35616439580917297</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>11</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>0.36666667461395203</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>15</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>0.58333331346511796</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>15</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>0.55102038383483798</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>6</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>0.33333334326744002</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>13</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>0.25373134016990601</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>40</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>0.37333333492278997</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>17</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>0.30882352590560902</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>13</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>0.20547945797443301</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>6</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>0.44642856717109602</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>6</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>0.42105263471603299</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>22</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>0.52631580829620295</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>17</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>0.53061223030090299</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>17</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>0.27586206793785001</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>15</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>0.73333334922790505</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>15</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>0.518518507480621</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>17</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>0.29508197307586598</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>22</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>0.46666666865348799</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>17</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>0.328125</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>5</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>0.59259259700775102</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>22</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>0.459016382694244</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>13</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>0.21250000596046401</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>26</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>0.53846156597137396</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>26</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>15</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>40</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>0.44827586412429798</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>11</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>0.36507937312126099</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>22</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>0.359375</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>17</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>0.28571429848670898</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>22</v>
       </c>
@@ -5492,7 +5492,7 @@
         <v>0.35294118523597701</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>11</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>0.318181812763214</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>8</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>0.40000000596046398</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>24</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>0.48571428656577997</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>13</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>0.274193555116653</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>17</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>0.26470589637756298</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>5</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>0.59259259700775102</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>26</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>0.483333319425582</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>13</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>0.20338982343673701</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>26</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>0.50909090042114202</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>15</v>
       </c>
@@ -5635,7 +5635,7 @@
         <v>0.481481492519378</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>10</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>0.48076921701431202</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>11</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>0.23255814611911699</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>13</v>
       </c>
@@ -5677,7 +5677,7 @@
         <v>0.23880596458911801</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>10</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>0.47222220897674499</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>24</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>0.47619047760963401</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>17</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>0.35483869910240101</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>22</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>0.47457626461982699</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>24</v>
       </c>
@@ -5750,7 +5750,7 @@
         <v>0.473684221506118</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>17</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>0.25714287161826999</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>17</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>0.41666665673255898</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>40</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>0.44262295961379999</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>17</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>0.53846156597137396</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>15</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>0.46296295523643399</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>5</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>0.46153846383094699</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>6</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>0.460317462682724</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>8</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>0.44736841320991499</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>6</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>0.56140351295471103</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>40</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>0.28749999403953502</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>26</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>0.44897958636283802</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>5</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>10</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>0.40000000596046398</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>40</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>0.30882352590560902</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>11</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>0.38333332538604697</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>13</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>0.23188406229019101</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>40</v>
       </c>
@@ -5997,7 +5997,7 @@
         <v>0.47761192917823703</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>11</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>0.39024388790130599</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>20</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>0.26027396321296598</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>13</v>
       </c>
@@ -6039,7 +6039,7 @@
         <v>0.178571432828903</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>13</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>0.211267605423927</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>26</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>0.50943398475646895</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>40</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>0.346153855323791</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>8</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>0.34883719682693398</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>8</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>0.34883719682693398</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>40</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>0.28358209133148099</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>20</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>0.33018869161605802</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>17</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v>0.28787878155708302</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>6</v>
       </c>
@@ -6165,7 +6165,7 @@
         <v>0.44642856717109602</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>8</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>0.41025641560554499</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>8</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>8</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>0.23809523880481701</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>8</v>
       </c>
@@ -6221,7 +6221,7 @@
         <v>0.18518517911434099</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>17</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>0.49090909957885698</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>22</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>0.32307693362236001</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>3</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>0.32499998807907099</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>17</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>0.23076923191547299</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>8</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>0.217391297221183</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>17</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>0.40983605384826599</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>18</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>0.40000000596046398</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>11</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>0.244897961616516</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>40</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>0.22222222387790599</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>17</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>0.40350878238677901</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>17</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>0.40322580933570801</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>18</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>0.51063829660415605</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>22</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>0.40000000596046398</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>22</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>8</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>0.37254902720451299</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>22</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>0.35384616255760099</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>40</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>0.210526317358016</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>22</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>0.34920635819435097</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>22</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>0.34920635819435097</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>22</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>0.39655172824859602</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>8</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>40</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>0.272727280855178</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>8</v>
       </c>
@@ -6549,7 +6549,7 @@
         <v>0.31707316637039101</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>13</v>
       </c>
@@ -6563,7 +6563,7 @@
         <v>0.184782609343528</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>8</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>0.46875</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>40</v>
       </c>
@@ -6591,7 +6591,7 @@
         <v>0.37837839126586897</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>10</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>0.36065572500228799</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>17</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>0.390625</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>22</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>0.34375</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>26</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>0.45833334326744002</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>3</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>0.37837839126586897</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>3</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>0.37837839126586897</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>40</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>0.21212121844291601</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>17</v>
       </c>
@@ -6706,7 +6706,7 @@
         <v>0.38709676265716497</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>3</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>24</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>0.38461539149284302</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>8</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>0.27906978130340498</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>10</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>0.38235294818878102</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>3</v>
       </c>
@@ -6779,7 +6779,7 @@
         <v>0.37142857909202498</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>15</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>0.380952388048172</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>15</v>
       </c>
@@ -6807,7 +6807,7 @@
         <v>0.37931033968925398</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>11</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>0.1839080452919</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>40</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>0.24193547666072801</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>22</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>11</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>0.16666667163372001</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>40</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>0.440677970647811</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>22</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>0.33333334326744002</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>22</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>0.37288135290145802</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>24</v>
       </c>
@@ -6919,7 +6919,7 @@
         <v>0.38461539149284302</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>8</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>0.33333334326744002</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>8</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>0.30434781312942499</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>3</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>0.30952382087707497</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>40</v>
       </c>
@@ -6975,7 +6975,7 @@
         <v>0.23863635957241</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>22</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>0.36507937312126099</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>22</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>0.31168830394744801</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>11</v>
       </c>
@@ -7020,7 +7020,7 @@
         <v>0.45714285969734098</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>10</v>
       </c>
@@ -7034,7 +7034,7 @@
         <v>0.36666667461395203</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>22</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>0.234375</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>24</v>
       </c>
@@ -7062,7 +7062,7 @@
         <v>0.36585366725921598</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>6</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>0.38709676265716497</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>5</v>
       </c>
@@ -7090,7 +7090,7 @@
         <v>0.363636374473571</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>22</v>
       </c>
@@ -7104,7 +7104,7 @@
         <v>0.359375</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>3</v>
       </c>
@@ -7118,7 +7118,7 @@
         <v>0.30232557654380798</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>17</v>
       </c>
@@ -7132,7 +7132,7 @@
         <v>0.246376812458038</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>11</v>
       </c>
@@ -7146,7 +7146,7 @@
         <v>0.18421052396297399</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>22</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>0.35483869910240101</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>40</v>
       </c>
@@ -7174,7 +7174,7 @@
         <v>0.20000000298023199</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>40</v>
       </c>
@@ -7188,7 +7188,7 @@
         <v>0.23943662643432601</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>11</v>
       </c>
@@ -7202,7 +7202,7 @@
         <v>0.26086956262588501</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>3</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>0.34210526943206698</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>8</v>
       </c>
@@ -7230,7 +7230,7 @@
         <v>0.27500000596046398</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>3</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>0.41666665673255898</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>17</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>0.266666680574417</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>22</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>0.261538475751876</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>11</v>
       </c>
@@ -7286,7 +7286,7 @@
         <v>0.14814814925193701</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>20</v>
       </c>
@@ -7300,7 +7300,7 @@
         <v>0.34722220897674499</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>40</v>
       </c>
@@ -7314,7 +7314,7 @@
         <v>0.19298245012760101</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>40</v>
       </c>
@@ -7328,7 +7328,7 @@
         <v>0.210526317358016</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>3</v>
       </c>
@@ -7342,7 +7342,7 @@
         <v>0.33333334326744002</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>8</v>
       </c>
@@ -7356,7 +7356,7 @@
         <v>0.30232557654380798</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>8</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>0.30232557654380798</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>11</v>
       </c>
@@ -7384,7 +7384,7 @@
         <v>0.14285714924335399</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>22</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>0.380952388048172</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>18</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>17</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>0.204545453190803</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>17</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>0.265625</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>24</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>3</v>
       </c>
@@ -7471,7 +7471,7 @@
         <v>0.33333334326744002</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>8</v>
       </c>
@@ -7485,7 +7485,7 @@
         <v>0.295454531908035</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>8</v>
       </c>
@@ -7499,7 +7499,7 @@
         <v>0.23255814611911699</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>17</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>0.328125</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>26</v>
       </c>
@@ -7527,7 +7527,7 @@
         <v>0.41999998688697798</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>8</v>
       </c>
@@ -7541,7 +7541,7 @@
         <v>0.32758620381355202</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>8</v>
       </c>
@@ -7555,7 +7555,7 @@
         <v>0.23404255509376501</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>40</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>0.234567895531654</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>24</v>
       </c>
@@ -7583,7 +7583,7 @@
         <v>0.454545468091964</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>8</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>0.28571429848670898</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>40</v>
       </c>
@@ -7611,7 +7611,7 @@
         <v>0.235294118523597</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>22</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>0.30000001192092801</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>22</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>0.28888890147209101</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>40</v>
       </c>
@@ -7653,7 +7653,7 @@
         <v>0.27142858505249001</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>22</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>0.29577463865280101</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>11</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>0.13432836532592701</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>8</v>
       </c>
@@ -7695,7 +7695,7 @@
         <v>0.35849055647849998</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>24</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>0.318181812763214</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>24</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>0.318181812763214</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>8</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>0.28571429848670898</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>8</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>0.30952382087707497</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>8</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>0.22222222387790599</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>24</v>
       </c>
@@ -7779,7 +7779,7 @@
         <v>0.36842104792594899</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>3</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>0.30555555224418601</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>40</v>
       </c>
@@ -7807,7 +7807,7 @@
         <v>0.20689655840396801</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>24</v>
       </c>
@@ -7821,7 +7821,7 @@
         <v>0.340909093618392</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>22</v>
       </c>
@@ -7835,7 +7835,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>10</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>0.41025641560554499</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>40</v>
       </c>
@@ -7863,7 +7863,7 @@
         <v>0.19402985274791701</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>8</v>
       </c>
@@ -7877,7 +7877,7 @@
         <v>0.219512194395065</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>40</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>0.21111111342906899</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>40</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>0.31147539615631098</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>17</v>
       </c>
@@ -7919,7 +7919,7 @@
         <v>0.239999994635581</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>40</v>
       </c>
@@ -7933,7 +7933,7 @@
         <v>0.45762711763381902</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>3</v>
       </c>
@@ -7947,7 +7947,7 @@
         <v>0.29411765933036799</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>3</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>0.292682915925979</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>24</v>
       </c>
@@ -7975,7 +7975,7 @@
         <v>0.26315790414810097</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>40</v>
       </c>
@@ -7989,7 +7989,7 @@
         <v>0.33333334326744002</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>17</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>0.31111112236976601</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>10</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>0.296875</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>22</v>
       </c>
@@ -8031,7 +8031,7 @@
         <v>0.28985506296157798</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>3</v>
       </c>
@@ -8045,7 +8045,7 @@
         <v>0.30952382087707497</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>20</v>
       </c>
@@ -8059,7 +8059,7 @@
         <v>0.22826087474822901</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>3</v>
       </c>
@@ -8073,7 +8073,7 @@
         <v>0.28571429848670898</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>3</v>
       </c>
@@ -8090,7 +8090,7 @@
         <v>0.34375</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>20</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>0.29473683238029402</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>24</v>
       </c>
@@ -8118,7 +8118,7 @@
         <v>0.34285715222358698</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>3</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>0.27586206793785001</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>11</v>
       </c>
@@ -8149,7 +8149,7 @@
         <v>0.29166665673255898</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>17</v>
       </c>
@@ -8166,7 +8166,7 @@
         <v>0.363636374473571</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>40</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>0.41095891594886702</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>10</v>
       </c>
@@ -8194,7 +8194,7 @@
         <v>0.28169015049934298</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>24</v>
       </c>
@@ -8208,7 +8208,7 @@
         <v>0.27906978130340498</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>24</v>
       </c>
@@ -8222,7 +8222,7 @@
         <v>0.27906978130340498</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>40</v>
       </c>
@@ -8236,7 +8236,7 @@
         <v>0.20000000298023199</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>24</v>
       </c>
@@ -8250,7 +8250,7 @@
         <v>0.33333334326744002</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>8</v>
       </c>
@@ -8264,7 +8264,7 @@
         <v>0.22222222387790599</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>10</v>
       </c>
@@ -8278,7 +8278,7 @@
         <v>0.27536231279373102</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>10</v>
       </c>
@@ -8295,7 +8295,7 @@
         <v>0.274509817361831</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>8</v>
       </c>
@@ -8309,7 +8309,7 @@
         <v>0.295454531908035</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>22</v>
       </c>
@@ -8323,7 +8323,7 @@
         <v>0.18000000715255701</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>17</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>0.30952382087707497</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>17</v>
       </c>
@@ -8357,7 +8357,7 @@
         <v>0.30952382087707497</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>3</v>
       </c>
@@ -8371,7 +8371,7 @@
         <v>0.29166665673255898</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>22</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>0.22972972691059099</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>24</v>
       </c>
@@ -8399,7 +8399,7 @@
         <v>0.26829269528388899</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>10</v>
       </c>
@@ -8413,7 +8413,7 @@
         <v>0.265625</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>10</v>
       </c>
@@ -8427,7 +8427,7 @@
         <v>0.265625</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>22</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>0.22222222387790599</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>22</v>
       </c>
@@ -8455,7 +8455,7 @@
         <v>0.223684206604957</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>24</v>
       </c>
@@ -8469,7 +8469,7 @@
         <v>0.37142857909202498</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>24</v>
       </c>
@@ -8483,7 +8483,7 @@
         <v>0.26190477609634399</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>22</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>0.26530611515045099</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>22</v>
       </c>
@@ -8511,7 +8511,7 @@
         <v>0.25714287161826999</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>3</v>
       </c>
@@ -8528,7 +8528,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>3</v>
       </c>
@@ -8542,7 +8542,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>3</v>
       </c>
@@ -8556,7 +8556,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>40</v>
       </c>
@@ -8570,7 +8570,7 @@
         <v>0.30303031206130898</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>17</v>
       </c>
@@ -8584,7 +8584,7 @@
         <v>0.31034481525421098</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>3</v>
       </c>
@@ -8598,7 +8598,7 @@
         <v>0.272727280855178</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>3</v>
       </c>
@@ -8612,7 +8612,7 @@
         <v>0.261538475751876</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>8</v>
       </c>
@@ -8626,7 +8626,7 @@
         <v>0.18000000715255701</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>40</v>
       </c>
@@ -8640,7 +8640,7 @@
         <v>0.224999994039535</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>40</v>
       </c>
@@ -8654,7 +8654,7 @@
         <v>0.272727280855178</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>22</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>0.28888890147209101</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>3</v>
       </c>
@@ -8682,7 +8682,7 @@
         <v>0.25423729419708202</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>8</v>
       </c>
@@ -8696,7 +8696,7 @@
         <v>0.295454531908035</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>40</v>
       </c>
@@ -8710,7 +8710,7 @@
         <v>0.23188406229019101</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>3</v>
       </c>
@@ -8724,7 +8724,7 @@
         <v>0.236842110753059</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>22</v>
       </c>
@@ -8738,7 +8738,7 @@
         <v>0.28985506296157798</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>24</v>
       </c>
@@ -8752,7 +8752,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>40</v>
       </c>
@@ -8766,7 +8766,7 @@
         <v>0.19444444775581299</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>40</v>
       </c>
@@ -8780,7 +8780,7 @@
         <v>0.26865673065185502</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>22</v>
       </c>
@@ -8794,7 +8794,7 @@
         <v>0.211267605423927</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>8</v>
       </c>
@@ -8808,7 +8808,7 @@
         <v>0.350877195596694</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>15</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v>0.235294118523597</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>40</v>
       </c>
@@ -8836,7 +8836,7 @@
         <v>0.193181812763214</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>3</v>
       </c>
@@ -8850,7 +8850,7 @@
         <v>0.31428572535514798</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>24</v>
       </c>
@@ -8864,7 +8864,7 @@
         <v>0.224999994039535</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>24</v>
       </c>
@@ -8878,7 +8878,7 @@
         <v>0.224999994039535</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>3</v>
       </c>
@@ -8895,7 +8895,7 @@
         <v>0.243243247270584</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>24</v>
       </c>
@@ -8909,7 +8909,7 @@
         <v>0.28205129504203702</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>40</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>0.26984128355979897</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>24</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>0.22222222387790599</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>3</v>
       </c>
@@ -8954,7 +8954,7 @@
         <v>0.21212121844291601</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>3</v>
       </c>
@@ -8968,7 +8968,7 @@
         <v>0.27027025818824701</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>24</v>
       </c>
@@ -8982,7 +8982,7 @@
         <v>0.26086956262588501</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>8</v>
       </c>
@@ -8996,7 +8996,7 @@
         <v>0.19402985274791701</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>3</v>
       </c>
@@ -9010,7 +9010,7 @@
         <v>0.217391297221183</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>40</v>
       </c>
@@ -9024,7 +9024,7 @@
         <v>0.19801980257034299</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>24</v>
       </c>
@@ -9038,7 +9038,7 @@
         <v>0.30000001192092801</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>3</v>
       </c>
@@ -9052,7 +9052,7 @@
         <v>0.224999994039535</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>3</v>
       </c>
@@ -9066,7 +9066,7 @@
         <v>0.204545453190803</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>24</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>0.31914892792701699</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>17</v>
       </c>
@@ -9094,7 +9094,7 @@
         <v>0.183098584413528</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>8</v>
       </c>
@@ -9108,7 +9108,7 @@
         <v>0.243243247270584</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>8</v>
       </c>
@@ -9122,7 +9122,7 @@
         <v>0.210526317358016</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>15</v>
       </c>
@@ -9139,7 +9139,7 @@
         <v>0.21568627655506101</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>8</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>0.17073170840740201</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>8</v>
       </c>
@@ -9167,7 +9167,7 @@
         <v>0.19298245012760101</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>24</v>
       </c>
@@ -9181,7 +9181,7 @@
         <v>0.21428571641445099</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>24</v>
       </c>
@@ -9195,7 +9195,7 @@
         <v>0.266666680574417</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>24</v>
       </c>
@@ -9209,7 +9209,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>3</v>
       </c>
@@ -9223,7 +9223,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>8</v>
       </c>
@@ -9237,7 +9237,7 @@
         <v>0.16279070079326599</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>24</v>
       </c>
@@ -9251,7 +9251,7 @@
         <v>0.17910447716712899</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>22</v>
       </c>
@@ -9265,7 +9265,7 @@
         <v>0.178217828273773</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>3</v>
       </c>
@@ -9279,7 +9279,7 @@
         <v>0.20833332836627899</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>24</v>
       </c>
@@ -9293,7 +9293,7 @@
         <v>0.18000000715255701</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>24</v>
       </c>
@@ -9307,7 +9307,7 @@
         <v>0.17948718369007099</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>15</v>
       </c>
@@ -9324,7 +9324,7 @@
         <v>0.17777778208255701</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>8</v>
       </c>
@@ -9341,7 +9341,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>24</v>
       </c>
@@ -9355,7 +9355,7 @@
         <v>0.25531914830207803</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>24</v>
       </c>
@@ -9369,7 +9369,7 @@
         <v>0.16949152946472101</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>22</v>
       </c>
@@ -9383,7 +9383,7 @@
         <v>0.175438597798347</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>8</v>
       </c>
@@ -9400,7 +9400,7 @@
         <v>0.152173906564712</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>8</v>
       </c>
@@ -9417,7 +9417,7 @@
         <v>0.128205135464668</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>3</v>
       </c>
@@ -9431,7 +9431,7 @@
         <v>0.19512194395065299</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>11</v>
       </c>
@@ -9448,7 +9448,7 @@
         <v>9.5238097012042999E-2</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>17</v>
       </c>
@@ -9462,7 +9462,7 @@
         <v>0.16666667163372001</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>24</v>
       </c>
@@ -9476,7 +9476,7 @@
         <v>0.150943398475646</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>8</v>
       </c>
@@ -9490,7 +9490,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>22</v>
       </c>
@@ -9507,7 +9507,7 @@
         <v>0.136363640427589</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>3</v>
       </c>
@@ -9521,7 +9521,7 @@
         <v>0.12698413431644401</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>17</v>
       </c>
@@ -9538,7 +9538,7 @@
         <v>9.0909093618392903E-2</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>24</v>
       </c>
@@ -9552,7 +9552,7 @@
         <v>0.13829787075519501</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>3</v>
       </c>
@@ -9569,7 +9569,7 @@
         <v>0.225806444883346</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>17</v>
       </c>
@@ -9586,7 +9586,7 @@
         <v>0.12765957415103901</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>24</v>
       </c>
@@ -9603,7 +9603,7 @@
         <v>0.16666667163372001</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>8</v>
       </c>
@@ -9620,7 +9620,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>6</v>
       </c>
@@ -9637,7 +9637,7 @@
         <v>9.30232554674148E-2</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>17</v>
       </c>
@@ -9654,7 +9654,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>17</v>
       </c>
@@ -9671,7 +9671,7 @@
         <v>9.7560971975326496E-2</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>3</v>
       </c>
@@ -9688,7 +9688,7 @@
         <v>0.13513512909412301</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>3</v>
       </c>
@@ -9705,7 +9705,7 @@
         <v>6.8181820213794694E-2</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>3</v>
       </c>
@@ -9722,7 +9722,7 @@
         <v>4.5454546809196403E-2</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>24</v>
       </c>
@@ -9740,7 +9740,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E504">
+  <sortState ref="A2:E504">
     <sortCondition descending="1" ref="D2:D504"/>
   </sortState>
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.5" header="0" footer="0"/>
